--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Rtn4-S1pr2.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Rtn4-S1pr2.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>36.2208070463334</v>
+        <v>40.797777</v>
       </c>
       <c r="H2">
-        <v>36.2208070463334</v>
+        <v>122.393331</v>
       </c>
       <c r="I2">
-        <v>0.2624097339090501</v>
+        <v>0.2689231481273683</v>
       </c>
       <c r="J2">
-        <v>0.2624097339090501</v>
+        <v>0.2689231481273683</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.6899697331252</v>
+        <v>3.221527666666666</v>
       </c>
       <c r="N2">
-        <v>1.6899697331252</v>
+        <v>9.664582999999999</v>
       </c>
       <c r="O2">
-        <v>0.1432849264417889</v>
+        <v>0.2384856963235171</v>
       </c>
       <c r="P2">
-        <v>0.1432849264417889</v>
+        <v>0.2384856963235171</v>
       </c>
       <c r="Q2">
-        <v>61.21206761767142</v>
+        <v>131.431167343997</v>
       </c>
       <c r="R2">
-        <v>61.21206761767142</v>
+        <v>1182.880506095973</v>
       </c>
       <c r="S2">
-        <v>0.03759935942076766</v>
+        <v>0.06413432423866776</v>
       </c>
       <c r="T2">
-        <v>0.03759935942076766</v>
+        <v>0.06413432423866777</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>36.2208070463334</v>
+        <v>40.797777</v>
       </c>
       <c r="H3">
-        <v>36.2208070463334</v>
+        <v>122.393331</v>
       </c>
       <c r="I3">
-        <v>0.2624097339090501</v>
+        <v>0.2689231481273683</v>
       </c>
       <c r="J3">
-        <v>0.2624097339090501</v>
+        <v>0.2689231481273683</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.544148841721221</v>
+        <v>8.629893666666666</v>
       </c>
       <c r="N3">
-        <v>8.544148841721221</v>
+        <v>25.889681</v>
       </c>
       <c r="O3">
-        <v>0.724419919657238</v>
+        <v>0.6388603213277522</v>
       </c>
       <c r="P3">
-        <v>0.724419919657238</v>
+        <v>0.6388603213277523</v>
       </c>
       <c r="Q3">
-        <v>309.4759665711373</v>
+        <v>352.080477346379</v>
       </c>
       <c r="R3">
-        <v>309.4759665711373</v>
+        <v>3168.724296117412</v>
       </c>
       <c r="S3">
-        <v>0.1900948383556713</v>
+        <v>0.1718043288251212</v>
       </c>
       <c r="T3">
-        <v>0.1900948383556713</v>
+        <v>0.1718043288251213</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>36.2208070463334</v>
+        <v>40.797777</v>
       </c>
       <c r="H4">
-        <v>36.2208070463334</v>
+        <v>122.393331</v>
       </c>
       <c r="I4">
-        <v>0.2624097339090501</v>
+        <v>0.2689231481273683</v>
       </c>
       <c r="J4">
-        <v>0.2624097339090501</v>
+        <v>0.2689231481273683</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.56035119313555</v>
+        <v>1.656842333333333</v>
       </c>
       <c r="N4">
-        <v>1.56035119313555</v>
+        <v>4.970527</v>
       </c>
       <c r="O4">
-        <v>0.1322951539009732</v>
+        <v>0.1226539823487307</v>
       </c>
       <c r="P4">
-        <v>0.1322951539009732</v>
+        <v>0.1226539823487307</v>
       </c>
       <c r="Q4">
-        <v>56.51717949107886</v>
+        <v>67.595484039493</v>
       </c>
       <c r="R4">
-        <v>56.51717949107886</v>
+        <v>608.3593563554371</v>
       </c>
       <c r="S4">
-        <v>0.03471553613261121</v>
+        <v>0.03298449506357932</v>
       </c>
       <c r="T4">
-        <v>0.03471553613261121</v>
+        <v>0.03298449506357932</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>46.1615960274159</v>
+        <v>46.219831</v>
       </c>
       <c r="H5">
-        <v>46.1615960274159</v>
+        <v>138.659493</v>
       </c>
       <c r="I5">
-        <v>0.3344280019734537</v>
+        <v>0.3046632285488233</v>
       </c>
       <c r="J5">
-        <v>0.3344280019734537</v>
+        <v>0.3046632285488233</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.6899697331252</v>
+        <v>3.221527666666666</v>
       </c>
       <c r="N5">
-        <v>1.6899697331252</v>
+        <v>9.664582999999999</v>
       </c>
       <c r="O5">
-        <v>0.1432849264417889</v>
+        <v>0.2384856963235171</v>
       </c>
       <c r="P5">
-        <v>0.1432849264417889</v>
+        <v>0.2384856963235171</v>
       </c>
       <c r="Q5">
-        <v>78.01170011908533</v>
+        <v>148.8984643151576</v>
       </c>
       <c r="R5">
-        <v>78.01170011908533</v>
+        <v>1340.086178836419</v>
       </c>
       <c r="S5">
-        <v>0.04791849166284077</v>
+        <v>0.07265782220463697</v>
       </c>
       <c r="T5">
-        <v>0.04791849166284077</v>
+        <v>0.07265782220463697</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>46.1615960274159</v>
+        <v>46.219831</v>
       </c>
       <c r="H6">
-        <v>46.1615960274159</v>
+        <v>138.659493</v>
       </c>
       <c r="I6">
-        <v>0.3344280019734537</v>
+        <v>0.3046632285488233</v>
       </c>
       <c r="J6">
-        <v>0.3344280019734537</v>
+        <v>0.3046632285488233</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.544148841721221</v>
+        <v>8.629893666666666</v>
       </c>
       <c r="N6">
-        <v>8.544148841721221</v>
+        <v>25.889681</v>
       </c>
       <c r="O6">
-        <v>0.724419919657238</v>
+        <v>0.6388603213277522</v>
       </c>
       <c r="P6">
-        <v>0.724419919657238</v>
+        <v>0.6388603213277523</v>
       </c>
       <c r="Q6">
-        <v>394.4115472296484</v>
+        <v>398.8722268213036</v>
       </c>
       <c r="R6">
-        <v>394.4115472296484</v>
+        <v>3589.850041391733</v>
       </c>
       <c r="S6">
-        <v>0.24226630632074</v>
+        <v>0.1946372480874517</v>
       </c>
       <c r="T6">
-        <v>0.24226630632074</v>
+        <v>0.1946372480874517</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>46.1615960274159</v>
+        <v>46.219831</v>
       </c>
       <c r="H7">
-        <v>46.1615960274159</v>
+        <v>138.659493</v>
       </c>
       <c r="I7">
-        <v>0.3344280019734537</v>
+        <v>0.3046632285488233</v>
       </c>
       <c r="J7">
-        <v>0.3344280019734537</v>
+        <v>0.3046632285488233</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.56035119313555</v>
+        <v>1.656842333333333</v>
       </c>
       <c r="N7">
-        <v>1.56035119313555</v>
+        <v>4.970527</v>
       </c>
       <c r="O7">
-        <v>0.1322951539009732</v>
+        <v>0.1226539823487307</v>
       </c>
       <c r="P7">
-        <v>0.1322951539009732</v>
+        <v>0.1226539823487307</v>
       </c>
       <c r="Q7">
-        <v>72.02830143841966</v>
+        <v>76.57897264031233</v>
       </c>
       <c r="R7">
-        <v>72.02830143841966</v>
+        <v>689.2107537628109</v>
       </c>
       <c r="S7">
-        <v>0.04424320398987303</v>
+        <v>0.03736815825673467</v>
       </c>
       <c r="T7">
-        <v>0.04424320398987303</v>
+        <v>0.03736815825673468</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>55.6490887720804</v>
+        <v>64.69033266666666</v>
       </c>
       <c r="H8">
-        <v>55.6490887720804</v>
+        <v>194.070998</v>
       </c>
       <c r="I8">
-        <v>0.4031622641174961</v>
+        <v>0.4264136233238083</v>
       </c>
       <c r="J8">
-        <v>0.4031622641174961</v>
+        <v>0.4264136233238083</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.6899697331252</v>
+        <v>3.221527666666666</v>
       </c>
       <c r="N8">
-        <v>1.6899697331252</v>
+        <v>9.664582999999999</v>
       </c>
       <c r="O8">
-        <v>0.1432849264417889</v>
+        <v>0.2384856963235171</v>
       </c>
       <c r="P8">
-        <v>0.1432849264417889</v>
+        <v>0.2384856963235171</v>
       </c>
       <c r="Q8">
-        <v>94.04527570081326</v>
+        <v>208.4016964515371</v>
       </c>
       <c r="R8">
-        <v>94.04527570081326</v>
+        <v>1875.615268063834</v>
       </c>
       <c r="S8">
-        <v>0.05776707535818051</v>
+        <v>0.1016935498802124</v>
       </c>
       <c r="T8">
-        <v>0.05776707535818051</v>
+        <v>0.1016935498802124</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>55.6490887720804</v>
+        <v>64.69033266666666</v>
       </c>
       <c r="H9">
-        <v>55.6490887720804</v>
+        <v>194.070998</v>
       </c>
       <c r="I9">
-        <v>0.4031622641174961</v>
+        <v>0.4264136233238083</v>
       </c>
       <c r="J9">
-        <v>0.4031622641174961</v>
+        <v>0.4264136233238083</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.544148841721221</v>
+        <v>8.629893666666666</v>
       </c>
       <c r="N9">
-        <v>8.544148841721221</v>
+        <v>25.889681</v>
       </c>
       <c r="O9">
-        <v>0.724419919657238</v>
+        <v>0.6388603213277522</v>
       </c>
       <c r="P9">
-        <v>0.724419919657238</v>
+        <v>0.6388603213277523</v>
       </c>
       <c r="Q9">
-        <v>475.4740973748121</v>
+        <v>558.2706921746263</v>
       </c>
       <c r="R9">
-        <v>475.4740973748121</v>
+        <v>5024.436229571638</v>
       </c>
       <c r="S9">
-        <v>0.2920587749808267</v>
+        <v>0.2724187444151793</v>
       </c>
       <c r="T9">
-        <v>0.2920587749808267</v>
+        <v>0.2724187444151793</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>55.6490887720804</v>
+        <v>64.69033266666666</v>
       </c>
       <c r="H10">
-        <v>55.6490887720804</v>
+        <v>194.070998</v>
       </c>
       <c r="I10">
-        <v>0.4031622641174961</v>
+        <v>0.4264136233238083</v>
       </c>
       <c r="J10">
-        <v>0.4031622641174961</v>
+        <v>0.4264136233238083</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.56035119313555</v>
+        <v>1.656842333333333</v>
       </c>
       <c r="N10">
-        <v>1.56035119313555</v>
+        <v>4.970527</v>
       </c>
       <c r="O10">
-        <v>0.1322951539009732</v>
+        <v>0.1226539823487307</v>
       </c>
       <c r="P10">
-        <v>0.1322951539009732</v>
+        <v>0.1226539823487307</v>
       </c>
       <c r="Q10">
-        <v>86.83212206242179</v>
+        <v>107.1816817195495</v>
       </c>
       <c r="R10">
-        <v>86.83212206242179</v>
+        <v>964.635135475946</v>
       </c>
       <c r="S10">
-        <v>0.05333641377848894</v>
+        <v>0.05230132902841668</v>
       </c>
       <c r="T10">
-        <v>0.05333641377848894</v>
+        <v>0.05230132902841669</v>
       </c>
     </row>
   </sheetData>
